--- a/src/P03_run_diff_sigma/T05_ml_auto_optuna/S03_calculate_performance.xlsx
+++ b/src/P03_run_diff_sigma/T05_ml_auto_optuna/S03_calculate_performance.xlsx
@@ -503,22 +503,22 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.6398315650878529</v>
+        <v>0.6409835919425437</v>
       </c>
       <c r="F2" t="n">
-        <v>1.006233894743212</v>
+        <v>1.006844567983757</v>
       </c>
       <c r="G2" t="n">
-        <v>1.700665024299284</v>
+        <v>1.723642632721418</v>
       </c>
       <c r="H2" t="n">
-        <v>1.306471355341545</v>
+        <v>1.414863147250845</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3601684349121468</v>
+        <v>0.359016408057456</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2128580419375025</v>
+        <v>0.2123803333919945</v>
       </c>
     </row>
     <row r="3">
@@ -539,22 +539,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.8043515676181144</v>
+        <v>0.8039814536878114</v>
       </c>
       <c r="F3" t="n">
-        <v>0.870961638561057</v>
+        <v>0.8713981169221422</v>
       </c>
       <c r="G3" t="n">
-        <v>1.366617649113824</v>
+        <v>1.36350946705822</v>
       </c>
       <c r="H3" t="n">
-        <v>4.34392462910137</v>
+        <v>4.329256052478414</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1956484323818855</v>
+        <v>0.1960185463121885</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.06211620944702712</v>
+        <v>-0.06264848402934664</v>
       </c>
     </row>
     <row r="4">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.4481509257239784</v>
+        <v>0.4511746893022495</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4985483922752075</v>
+        <v>0.4992262959667539</v>
       </c>
       <c r="G4" t="n">
-        <v>1.307450628208624</v>
+        <v>1.308136674828034</v>
       </c>
       <c r="H4" t="n">
-        <v>1.357217611820766</v>
+        <v>1.353460496036998</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5518490742760218</v>
+        <v>0.5488253106977508</v>
       </c>
       <c r="J4" t="n">
-        <v>0.415530102413701</v>
+        <v>0.4147353665218385</v>
       </c>
     </row>
     <row r="5">
@@ -611,22 +611,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.6307780194766487</v>
+        <v>0.6320465783108681</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7919146418598255</v>
+        <v>0.7924896602908841</v>
       </c>
       <c r="G5" t="n">
-        <v>1.458244433873911</v>
+        <v>1.465096258202557</v>
       </c>
       <c r="H5" t="n">
-        <v>2.33587119875456</v>
+        <v>2.365859898588753</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3692219805233511</v>
+        <v>0.3679534216891316</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1887573116347252</v>
+        <v>0.1881557386281619</v>
       </c>
     </row>
     <row r="6">
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.6274609164774518</v>
+        <v>0.633305248808523</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6494453493110559</v>
+        <v>0.6677198781361438</v>
       </c>
       <c r="G6" t="n">
-        <v>1.674096609658583</v>
+        <v>1.750693998441606</v>
       </c>
       <c r="H6" t="n">
-        <v>1.605045723996311</v>
+        <v>1.49007647331196</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3725390835225482</v>
+        <v>0.366694751191477</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2556608398052848</v>
+        <v>0.2347161252838093</v>
       </c>
     </row>
     <row r="7">
@@ -683,22 +683,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.7597996208611347</v>
+        <v>0.7620707652829711</v>
       </c>
       <c r="F7" t="n">
-        <v>1.017996479964427</v>
+        <v>0.99372147878366</v>
       </c>
       <c r="G7" t="n">
-        <v>1.53783996241133</v>
+        <v>1.457535600359685</v>
       </c>
       <c r="H7" t="n">
-        <v>1.611224993029207</v>
+        <v>1.596060869951312</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2402003791388656</v>
+        <v>0.2379292347170292</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.1379836789268731</v>
+        <v>-0.1108474798404007</v>
       </c>
     </row>
     <row r="8">
@@ -719,22 +719,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.4585669239191821</v>
+        <v>0.4545471405011794</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5927087651732492</v>
+        <v>0.5802300289973925</v>
       </c>
       <c r="G8" t="n">
-        <v>1.845319119377383</v>
+        <v>1.811273186128421</v>
       </c>
       <c r="H8" t="n">
-        <v>1.1083365192429</v>
+        <v>1.140296917147755</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5414330760808177</v>
+        <v>0.5454528594988204</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4630606244629947</v>
+        <v>0.4743652064153081</v>
       </c>
     </row>
     <row r="9">
@@ -755,22 +755,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.6152758204192561</v>
+        <v>0.616641051530891</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7533835314829108</v>
+        <v>0.7472237953057319</v>
       </c>
       <c r="G9" t="n">
-        <v>1.685751897149099</v>
+        <v>1.673167594976571</v>
       </c>
       <c r="H9" t="n">
-        <v>1.441535745422806</v>
+        <v>1.408811420137009</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3847241795807439</v>
+        <v>0.383358948469109</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1935792617804684</v>
+        <v>0.1994112839529056</v>
       </c>
     </row>
     <row r="10">
@@ -791,22 +791,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.5275365487220717</v>
+        <v>0.5240928404226481</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9599882430000068</v>
+        <v>0.9641738948195497</v>
       </c>
       <c r="G10" t="n">
-        <v>1.409016869534951</v>
+        <v>1.370627823563876</v>
       </c>
       <c r="H10" t="n">
-        <v>2.108715318816504</v>
+        <v>2.112456536614373</v>
       </c>
       <c r="I10" t="n">
-        <v>0.472463451277928</v>
+        <v>0.4759071595773515</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1468947278753479</v>
+        <v>0.1431750972855279</v>
       </c>
     </row>
     <row r="11">
@@ -827,22 +827,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.7667541712143405</v>
+        <v>0.7635345744798776</v>
       </c>
       <c r="F11" t="n">
-        <v>0.917421369184745</v>
+        <v>0.9297204327679194</v>
       </c>
       <c r="G11" t="n">
-        <v>1.57107796325737</v>
+        <v>1.589804750410602</v>
       </c>
       <c r="H11" t="n">
-        <v>3.190480640632428</v>
+        <v>3.191329706736248</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2332458287856591</v>
+        <v>0.2364654255201221</v>
       </c>
       <c r="J11" t="n">
-        <v>0.004470678283633789</v>
+        <v>-0.008875510106968632</v>
       </c>
     </row>
     <row r="12">
@@ -863,22 +863,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.3914821828187822</v>
+        <v>0.393810489398939</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4062294747011559</v>
+        <v>0.4100881689624671</v>
       </c>
       <c r="G12" t="n">
-        <v>1.214572673180701</v>
+        <v>1.225942013789732</v>
       </c>
       <c r="H12" t="n">
-        <v>1.035412165008442</v>
+        <v>1.018132990971582</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6085178171812177</v>
+        <v>0.6061895106010609</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4468133391524796</v>
+        <v>0.4415587273466363</v>
       </c>
     </row>
     <row r="13">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.5619243009183982</v>
+        <v>0.5604793014338217</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7612130289619693</v>
+        <v>0.7679941655166456</v>
       </c>
       <c r="G13" t="n">
-        <v>1.398222501991007</v>
+        <v>1.395458195921402</v>
       </c>
       <c r="H13" t="n">
-        <v>2.111536041485792</v>
+        <v>2.107306411440735</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4380756990816019</v>
+        <v>0.4395206985661783</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1993929151038206</v>
+        <v>0.1919527715083984</v>
       </c>
     </row>
     <row r="14">
@@ -935,22 +935,22 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.5910959132108287</v>
+        <v>0.6003119899104084</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8461608603150198</v>
+        <v>0.8509005669358788</v>
       </c>
       <c r="G14" t="n">
-        <v>1.143877219202323</v>
+        <v>1.198179558154489</v>
       </c>
       <c r="H14" t="n">
-        <v>3.628623536475353</v>
+        <v>3.898387587162179</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4089040867891712</v>
+        <v>0.3996880100895915</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2518342646770116</v>
+        <v>0.2476434704019256</v>
       </c>
     </row>
     <row r="15">
@@ -971,22 +971,22 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.7840015787878514</v>
+        <v>0.7882484378974521</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9561709471523696</v>
+        <v>0.9528005311397876</v>
       </c>
       <c r="G15" t="n">
-        <v>2.999193737744788</v>
+        <v>2.915681796238875</v>
       </c>
       <c r="H15" t="n">
-        <v>1.210588231204743</v>
+        <v>1.202429644919333</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2159984212121481</v>
+        <v>0.2117515621025474</v>
       </c>
       <c r="J15" t="n">
-        <v>0.04074298978535706</v>
+        <v>0.04412428389080714</v>
       </c>
     </row>
     <row r="16">
@@ -1007,22 +1007,22 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.3849268996835912</v>
+        <v>0.3748988214867246</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4583772674993332</v>
+        <v>0.460241749228231</v>
       </c>
       <c r="G16" t="n">
-        <v>1.179124341456884</v>
+        <v>1.172005589070014</v>
       </c>
       <c r="H16" t="n">
-        <v>1.128269972075549</v>
+        <v>1.110627201587097</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6150731003164092</v>
+        <v>0.6251011785132757</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4571386530729903</v>
+        <v>0.4549305264174253</v>
       </c>
     </row>
     <row r="17">
@@ -1043,22 +1043,22 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.5866747972274237</v>
+        <v>0.5878197497648616</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7535696916555743</v>
+        <v>0.7546476157679658</v>
       </c>
       <c r="G17" t="n">
-        <v>1.774065099467999</v>
+        <v>1.761955647821128</v>
       </c>
       <c r="H17" t="n">
-        <v>1.989160579918549</v>
+        <v>2.070481477889536</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4133252027725758</v>
+        <v>0.412180250235138</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2499053025117861</v>
+        <v>0.248899426903386</v>
       </c>
     </row>
     <row r="18">
@@ -1079,22 +1079,22 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.5109667723447604</v>
+        <v>0.5056785870605408</v>
       </c>
       <c r="F18" t="n">
-        <v>1.039163283081421</v>
+        <v>1.035537329612189</v>
       </c>
       <c r="G18" t="n">
-        <v>27.16525464265591</v>
+        <v>30.66952362956795</v>
       </c>
       <c r="H18" t="n">
-        <v>1.528381114858155</v>
+        <v>1.480237947456787</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4890332276552393</v>
+        <v>0.4943214129394587</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1089307002082496</v>
+        <v>0.1120399091954311</v>
       </c>
     </row>
     <row r="19">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.7443331143589704</v>
+        <v>0.740685845001827</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8673500345958083</v>
+        <v>0.8528215965682855</v>
       </c>
       <c r="G19" t="n">
-        <v>1.397831032734891</v>
+        <v>1.426070525787772</v>
       </c>
       <c r="H19" t="n">
-        <v>2.503476973132989</v>
+        <v>2.53050308099895</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2556668856410295</v>
+        <v>0.2593141549981728</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.1328763047690389</v>
+        <v>-0.1139002022381201</v>
       </c>
     </row>
     <row r="20">
@@ -1151,22 +1151,22 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.3982677899774001</v>
+        <v>0.3989251226333593</v>
       </c>
       <c r="F20" t="n">
-        <v>0.467499384060456</v>
+        <v>0.4580150349245889</v>
       </c>
       <c r="G20" t="n">
-        <v>1.197930656780884</v>
+        <v>1.213067586463602</v>
       </c>
       <c r="H20" t="n">
-        <v>1.081189198188669</v>
+        <v>1.010347645871225</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6017322100226006</v>
+        <v>0.6010748773666413</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5081337676209898</v>
+        <v>0.5181124568665414</v>
       </c>
     </row>
     <row r="21">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.5511892255603769</v>
+        <v>0.5484298515652423</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7913375672458952</v>
+        <v>0.7821246537016879</v>
       </c>
       <c r="G21" t="n">
-        <v>9.920338777390565</v>
+        <v>11.10288724727311</v>
       </c>
       <c r="H21" t="n">
-        <v>1.704349095393271</v>
+        <v>1.673696224775654</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4488107744396232</v>
+        <v>0.4515701484347578</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1613960543533997</v>
+        <v>0.1720840546079505</v>
       </c>
     </row>
     <row r="22">
@@ -1223,22 +1223,22 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.5756422035617296</v>
+        <v>0.6719884009468065</v>
       </c>
       <c r="F22" t="n">
-        <v>1.066871929598887</v>
+        <v>0.9707767071694476</v>
       </c>
       <c r="G22" t="n">
-        <v>2.338796249079093</v>
+        <v>1.591282537791273</v>
       </c>
       <c r="H22" t="n">
-        <v>1.701631386437434</v>
+        <v>1.602182388440878</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4243577964382701</v>
+        <v>0.3280115990531933</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1654230054726069</v>
+        <v>0.2405949728836864</v>
       </c>
     </row>
     <row r="23">
@@ -1259,22 +1259,22 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.8010569623933124</v>
+        <v>0.8676295550527775</v>
       </c>
       <c r="F23" t="n">
-        <v>0.983424156285058</v>
+        <v>0.9296201489413393</v>
       </c>
       <c r="G23" t="n">
-        <v>1.82520877509998</v>
+        <v>1.200522225929227</v>
       </c>
       <c r="H23" t="n">
-        <v>3.53608697270109</v>
+        <v>2.387534406052534</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1989430376066875</v>
+        <v>0.1323704449472224</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.1992614725004369</v>
+        <v>-0.1336488142582399</v>
       </c>
     </row>
     <row r="24">
@@ -1295,22 +1295,22 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.5066361527989038</v>
+        <v>0.6445840900283097</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5829708262994772</v>
+        <v>0.7287304634411925</v>
       </c>
       <c r="G24" t="n">
-        <v>1.531813021955246</v>
+        <v>1.142948006805351</v>
       </c>
       <c r="H24" t="n">
-        <v>1.502376656799361</v>
+        <v>1.385589023479065</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4933638472010964</v>
+        <v>0.3554159099716905</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3165580224056421</v>
+        <v>0.1456776795694207</v>
       </c>
     </row>
     <row r="25">
@@ -1331,22 +1331,22 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.6277784395846484</v>
+        <v>0.7280673486759642</v>
       </c>
       <c r="F25" t="n">
-        <v>0.877755637394474</v>
+        <v>0.8763757731839932</v>
       </c>
       <c r="G25" t="n">
-        <v>1.898606015378106</v>
+        <v>1.31158425684195</v>
       </c>
       <c r="H25" t="n">
-        <v>2.246698338645962</v>
+        <v>1.791768605990827</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3722215604153514</v>
+        <v>0.2719326513240355</v>
       </c>
       <c r="J25" t="n">
-        <v>0.09423985179260401</v>
+        <v>0.08420794606495548</v>
       </c>
     </row>
     <row r="26">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.9295800964064994</v>
+        <v>0.7071526859268403</v>
       </c>
       <c r="F26" t="n">
-        <v>0.922182938218308</v>
+        <v>0.892642371240741</v>
       </c>
       <c r="G26" t="n">
-        <v>1.112908612929339</v>
+        <v>1.564628360163452</v>
       </c>
       <c r="H26" t="n">
-        <v>1.066634200966421</v>
+        <v>1.856684608853354</v>
       </c>
       <c r="I26" t="n">
-        <v>0.07041990359350059</v>
+        <v>0.2928473140731597</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.05692784544145946</v>
+        <v>-0.02307095380449042</v>
       </c>
     </row>
     <row r="27">
@@ -1403,22 +1403,22 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.9672121131232024</v>
+        <v>0.8425704284083463</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8946351415038206</v>
+        <v>1.000086010990407</v>
       </c>
       <c r="G27" t="n">
-        <v>1.020640740479007</v>
+        <v>1.186873133361642</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9915093673332787</v>
+        <v>1.780638546987528</v>
       </c>
       <c r="I27" t="n">
-        <v>0.03278788687679801</v>
+        <v>0.157429571591654</v>
       </c>
       <c r="J27" t="n">
-        <v>-8.222981415206831e-05</v>
+        <v>-0.1179621741618733</v>
       </c>
     </row>
     <row r="28">
@@ -1439,22 +1439,22 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.9336781829182561</v>
+        <v>0.6968964720247954</v>
       </c>
       <c r="F28" t="n">
-        <v>1.171330342650303</v>
+        <v>0.9250267395882864</v>
       </c>
       <c r="G28" t="n">
-        <v>1.233928970556894</v>
+        <v>1.703993285886382</v>
       </c>
       <c r="H28" t="n">
-        <v>1.213217785355586</v>
+        <v>1.495929774831612</v>
       </c>
       <c r="I28" t="n">
-        <v>0.06632181708174345</v>
+        <v>0.3031035279752042</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.06111706066361688</v>
+        <v>0.1620112454986461</v>
       </c>
     </row>
     <row r="29">
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.9434901308159854</v>
+        <v>0.7488731954533271</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9960494741241437</v>
+        <v>0.9392517072731447</v>
       </c>
       <c r="G29" t="n">
-        <v>1.12249277465508</v>
+        <v>1.485164926470492</v>
       </c>
       <c r="H29" t="n">
-        <v>1.090453784551761</v>
+        <v>1.711084310224164</v>
       </c>
       <c r="I29" t="n">
-        <v>0.05650986918401427</v>
+        <v>0.2511268045466727</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.03937571197307636</v>
+        <v>0.006992705844093727</v>
       </c>
     </row>
     <row r="30">
@@ -1511,22 +1511,22 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.9137455171824052</v>
+        <v>0.6044725317976483</v>
       </c>
       <c r="F30" t="n">
-        <v>1.052247042298501</v>
+        <v>0.9665321094027044</v>
       </c>
       <c r="G30" t="n">
-        <v>1.092649046134339</v>
+        <v>1.392571996947705</v>
       </c>
       <c r="H30" t="n">
-        <v>1.16584185589373</v>
+        <v>2.029401680183733</v>
       </c>
       <c r="I30" t="n">
-        <v>0.08625448281759429</v>
+        <v>0.3955274682023514</v>
       </c>
       <c r="J30" t="n">
-        <v>0.06490781954043523</v>
+        <v>0.1410794411060278</v>
       </c>
     </row>
     <row r="31">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.9793256890084474</v>
+        <v>0.7984785216536613</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9292480257828037</v>
+        <v>0.9696423435044218</v>
       </c>
       <c r="G31" t="n">
-        <v>1.176533652998912</v>
+        <v>2.414116660954928</v>
       </c>
       <c r="H31" t="n">
-        <v>1.64575594513701</v>
+        <v>3.2178437199148</v>
       </c>
       <c r="I31" t="n">
-        <v>0.02067431099155215</v>
+        <v>0.2015214783463384</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.008362883062010829</v>
+        <v>-0.05219631563000648</v>
       </c>
     </row>
     <row r="32">
@@ -1583,22 +1583,22 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.9064676473568056</v>
+        <v>0.6393067169769874</v>
       </c>
       <c r="F32" t="n">
-        <v>0.7050521034188563</v>
+        <v>0.5701979246392199</v>
       </c>
       <c r="G32" t="n">
-        <v>1.055287103893403</v>
+        <v>1.32220581742816</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9810002848958017</v>
+        <v>1.05166246047631</v>
       </c>
       <c r="I32" t="n">
-        <v>0.09353235264319393</v>
+        <v>0.3606932830230124</v>
       </c>
       <c r="J32" t="n">
-        <v>0.03988892214007567</v>
+        <v>0.2235278196260864</v>
       </c>
     </row>
     <row r="33">
@@ -1619,22 +1619,22 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.9331796178492193</v>
+        <v>0.6807525901427657</v>
       </c>
       <c r="F33" t="n">
-        <v>0.895515723833387</v>
+        <v>0.8354574591821157</v>
       </c>
       <c r="G33" t="n">
-        <v>1.108156601008885</v>
+        <v>1.70963149177693</v>
       </c>
       <c r="H33" t="n">
-        <v>1.264199361975514</v>
+        <v>2.099635953524948</v>
       </c>
       <c r="I33" t="n">
-        <v>0.06682038215078068</v>
+        <v>0.3192474098572344</v>
       </c>
       <c r="J33" t="n">
-        <v>0.03214461953949999</v>
+        <v>0.1041369817007023</v>
       </c>
     </row>
     <row r="34">
@@ -1655,22 +1655,22 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.9415071189756675</v>
+        <v>0.6821233432666715</v>
       </c>
       <c r="F34" t="n">
-        <v>1.064435316278348</v>
+        <v>0.8200457192182254</v>
       </c>
       <c r="G34" t="n">
-        <v>1.108156008001834</v>
+        <v>1.304922050455445</v>
       </c>
       <c r="H34" t="n">
-        <v>1.109592245732084</v>
+        <v>3.195052666834638</v>
       </c>
       <c r="I34" t="n">
-        <v>0.05849288102433226</v>
+        <v>0.3178766567333284</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0588384922334233</v>
+        <v>0.2749249731440433</v>
       </c>
     </row>
     <row r="35">
@@ -1691,22 +1691,22 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.974581162039641</v>
+        <v>0.8539421969564919</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9888332694342392</v>
+        <v>0.9936312315260555</v>
       </c>
       <c r="G35" t="n">
-        <v>1.324698213526437</v>
+        <v>2.632921055920368</v>
       </c>
       <c r="H35" t="n">
-        <v>1.019051680060056</v>
+        <v>1.226579685896562</v>
       </c>
       <c r="I35" t="n">
-        <v>0.02541883796035838</v>
+        <v>0.1460578030435076</v>
       </c>
       <c r="J35" t="n">
-        <v>0.007975249129688944</v>
+        <v>0.003161801508188011</v>
       </c>
     </row>
     <row r="36">
@@ -1727,22 +1727,22 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.9167637407900466</v>
+        <v>0.6229801188247257</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8002326148523872</v>
+        <v>0.6934854913302292</v>
       </c>
       <c r="G36" t="n">
-        <v>1.017738597356467</v>
+        <v>1.199566452044525</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9920126899552151</v>
+        <v>1.219446435820066</v>
       </c>
       <c r="I36" t="n">
-        <v>0.08323625920995414</v>
+        <v>0.3770198811752749</v>
       </c>
       <c r="J36" t="n">
-        <v>0.05227552508519229</v>
+        <v>0.1786973425805523</v>
       </c>
     </row>
     <row r="37">
@@ -1763,22 +1763,22 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.9442840072684516</v>
+        <v>0.7196818863492962</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9511670668549912</v>
+        <v>0.8357208140248368</v>
       </c>
       <c r="G37" t="n">
-        <v>1.150197606294913</v>
+        <v>1.712469852806779</v>
       </c>
       <c r="H37" t="n">
-        <v>1.040218871915785</v>
+        <v>1.880359596183755</v>
       </c>
       <c r="I37" t="n">
-        <v>0.05571599273154789</v>
+        <v>0.2803181136507033</v>
       </c>
       <c r="J37" t="n">
-        <v>0.03969642214943481</v>
+        <v>0.1522613724109277</v>
       </c>
     </row>
     <row r="38">
@@ -1799,22 +1799,22 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.8753498473171804</v>
+        <v>0.5961842190150323</v>
       </c>
       <c r="F38" t="n">
-        <v>1.116523949717699</v>
+        <v>1.091594373983386</v>
       </c>
       <c r="G38" t="n">
-        <v>11.13566041079127</v>
+        <v>11.83539801856106</v>
       </c>
       <c r="H38" t="n">
-        <v>1.171908948651143</v>
+        <v>1.454016176501449</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1246501526828189</v>
+        <v>0.4038157809849672</v>
       </c>
       <c r="J38" t="n">
-        <v>0.04259491239384294</v>
+        <v>0.06397170654673945</v>
       </c>
     </row>
     <row r="39">
@@ -1835,22 +1835,22 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.9702208903474192</v>
+        <v>0.8173475678223946</v>
       </c>
       <c r="F39" t="n">
-        <v>0.79726120235192</v>
+        <v>0.9006874034016026</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9969826940146345</v>
+        <v>1.169454765495944</v>
       </c>
       <c r="H39" t="n">
-        <v>1.063130387509207</v>
+        <v>1.999312710327019</v>
       </c>
       <c r="I39" t="n">
-        <v>0.02977910965258057</v>
+        <v>0.1826524321776052</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.04133082242518316</v>
+        <v>-0.1764194115621696</v>
       </c>
     </row>
     <row r="40">
@@ -1871,22 +1871,22 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.8896235563339854</v>
+        <v>0.6338452938566714</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9142921203775577</v>
+        <v>0.8777490232296886</v>
       </c>
       <c r="G40" t="n">
-        <v>1.076389709454012</v>
+        <v>1.230333939547842</v>
       </c>
       <c r="H40" t="n">
-        <v>1.00695303760935</v>
+        <v>1.409808243980473</v>
       </c>
       <c r="I40" t="n">
-        <v>0.110376443666016</v>
+        <v>0.3661547061433295</v>
       </c>
       <c r="J40" t="n">
-        <v>0.03805344803241439</v>
+        <v>0.0765012324069454</v>
       </c>
     </row>
     <row r="41">
@@ -1907,22 +1907,22 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.9117314313328619</v>
+        <v>0.6824590268980328</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9426924241490587</v>
+        <v>0.9566769335382256</v>
       </c>
       <c r="G41" t="n">
-        <v>4.40301093808664</v>
+        <v>4.745062241201614</v>
       </c>
       <c r="H41" t="n">
-        <v>1.0806641245899</v>
+        <v>1.621045710269647</v>
       </c>
       <c r="I41" t="n">
-        <v>0.08826856866713828</v>
+        <v>0.3175409731019673</v>
       </c>
       <c r="J41" t="n">
-        <v>0.01310584600035777</v>
+        <v>-0.01198215753616179</v>
       </c>
     </row>
   </sheetData>

--- a/src/P03_run_diff_sigma/T05_ml_auto_optuna/S03_calculate_performance.xlsx
+++ b/src/P03_run_diff_sigma/T05_ml_auto_optuna/S03_calculate_performance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,7 +494,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -503,22 +503,22 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.6409835919425437</v>
+        <v>0.6960772308243458</v>
       </c>
       <c r="F2" t="n">
-        <v>1.006844567983757</v>
+        <v>1.019407966104212</v>
       </c>
       <c r="G2" t="n">
-        <v>1.723642632721418</v>
+        <v>1.798993015052127</v>
       </c>
       <c r="H2" t="n">
-        <v>1.414863147250845</v>
+        <v>1.50136049849905</v>
       </c>
       <c r="I2" t="n">
-        <v>0.359016408057456</v>
+        <v>0.3039227691756539</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2123803333919945</v>
+        <v>0.2025524217621865</v>
       </c>
     </row>
     <row r="3">
@@ -530,7 +530,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -539,22 +539,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.8039814536878114</v>
+        <v>0.8726073806928758</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8713981169221422</v>
+        <v>0.824408224456403</v>
       </c>
       <c r="G3" t="n">
-        <v>1.36350946705822</v>
+        <v>1.192066363536606</v>
       </c>
       <c r="H3" t="n">
-        <v>4.329256052478414</v>
+        <v>2.74423377931647</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1960185463121885</v>
+        <v>0.127392619307124</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.06264848402934664</v>
+        <v>-0.005345470603301594</v>
       </c>
     </row>
     <row r="4">
@@ -566,7 +566,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.4511746893022495</v>
+        <v>0.6077969380044708</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4992262959667539</v>
+        <v>0.639110428835399</v>
       </c>
       <c r="G4" t="n">
-        <v>1.308136674828034</v>
+        <v>1.37764525347879</v>
       </c>
       <c r="H4" t="n">
-        <v>1.353460496036998</v>
+        <v>1.271590450743787</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5488253106977508</v>
+        <v>0.3922030619955296</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4147353665218385</v>
+        <v>0.2507431321099113</v>
       </c>
     </row>
     <row r="5">
@@ -602,7 +602,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -611,22 +611,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.6320465783108681</v>
+        <v>0.7254938498405639</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7924896602908841</v>
+        <v>0.827642206465338</v>
       </c>
       <c r="G5" t="n">
-        <v>1.465096258202557</v>
+        <v>1.45623487735584</v>
       </c>
       <c r="H5" t="n">
-        <v>2.365859898588753</v>
+        <v>1.839061576186436</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3679534216891316</v>
+        <v>0.2745061501594359</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1881557386281619</v>
+        <v>0.1493166944229317</v>
       </c>
     </row>
     <row r="6">
@@ -638,7 +638,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.633305248808523</v>
+        <v>0.7195385162039327</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6677198781361438</v>
+        <v>0.7642937829603834</v>
       </c>
       <c r="G6" t="n">
-        <v>1.750693998441606</v>
+        <v>1.632072507873599</v>
       </c>
       <c r="H6" t="n">
-        <v>1.49007647331196</v>
+        <v>1.68923559869198</v>
       </c>
       <c r="I6" t="n">
-        <v>0.366694751191477</v>
+        <v>0.2804614837960673</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2347161252838093</v>
+        <v>0.124031308940364</v>
       </c>
     </row>
     <row r="7">
@@ -674,7 +674,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -683,22 +683,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.7620707652829711</v>
+        <v>0.863822330336566</v>
       </c>
       <c r="F7" t="n">
-        <v>0.99372147878366</v>
+        <v>0.9420642983860538</v>
       </c>
       <c r="G7" t="n">
-        <v>1.457535600359685</v>
+        <v>1.167348786846272</v>
       </c>
       <c r="H7" t="n">
-        <v>1.596060869951312</v>
+        <v>1.313558281451397</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2379292347170292</v>
+        <v>0.1361776696634344</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.1108474798404007</v>
+        <v>-0.05310167290606693</v>
       </c>
     </row>
     <row r="8">
@@ -710,7 +710,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -719,22 +719,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.4545471405011794</v>
+        <v>0.6309664722260357</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5802300289973925</v>
+        <v>0.8295699683299582</v>
       </c>
       <c r="G8" t="n">
-        <v>1.811273186128421</v>
+        <v>1.903375019027765</v>
       </c>
       <c r="H8" t="n">
-        <v>1.140296917147755</v>
+        <v>1.420963720105957</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5454528594988204</v>
+        <v>0.369033527773964</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4743652064153081</v>
+        <v>0.2484862601464281</v>
       </c>
     </row>
     <row r="9">
@@ -746,7 +746,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -755,22 +755,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.616641051530891</v>
+        <v>0.7381091062555113</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7472237953057319</v>
+        <v>0.8453093498921317</v>
       </c>
       <c r="G9" t="n">
-        <v>1.673167594976571</v>
+        <v>1.567598771249212</v>
       </c>
       <c r="H9" t="n">
-        <v>1.408811420137009</v>
+        <v>1.474585866749777</v>
       </c>
       <c r="I9" t="n">
-        <v>0.383358948469109</v>
+        <v>0.2618908937444885</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1994112839529056</v>
+        <v>0.1064719653935748</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -791,22 +791,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.5240928404226481</v>
+        <v>0.6349060282560055</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9641738948195497</v>
+        <v>0.9810615670390228</v>
       </c>
       <c r="G10" t="n">
-        <v>1.370627823563876</v>
+        <v>1.314830753199098</v>
       </c>
       <c r="H10" t="n">
-        <v>2.112456536614373</v>
+        <v>1.976018187827347</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4759071595773515</v>
+        <v>0.3650939717439942</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1431750972855279</v>
+        <v>0.128167661195141</v>
       </c>
     </row>
     <row r="11">
@@ -818,7 +818,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -827,22 +827,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.7635345744798776</v>
+        <v>0.8765858264619248</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9297204327679194</v>
+        <v>0.9127704549904607</v>
       </c>
       <c r="G11" t="n">
-        <v>1.589804750410602</v>
+        <v>1.360612718673878</v>
       </c>
       <c r="H11" t="n">
-        <v>3.191329706736248</v>
+        <v>2.660852851514883</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2364654255201221</v>
+        <v>0.1234141735380748</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.008875510106968632</v>
+        <v>0.009517564707602122</v>
       </c>
     </row>
     <row r="12">
@@ -854,7 +854,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -863,22 +863,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.393810489398939</v>
+        <v>0.6416962982240479</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4100881689624671</v>
+        <v>0.50037399395266</v>
       </c>
       <c r="G12" t="n">
-        <v>1.225942013789732</v>
+        <v>1.399101317343013</v>
       </c>
       <c r="H12" t="n">
-        <v>1.018132990971582</v>
+        <v>1.178863948801027</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6061895106010609</v>
+        <v>0.3583037017759518</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4415587273466363</v>
+        <v>0.3186111886803921</v>
       </c>
     </row>
     <row r="13">
@@ -890,7 +890,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.5604793014338217</v>
+        <v>0.7177293843139928</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7679941655166456</v>
+        <v>0.7980686719940477</v>
       </c>
       <c r="G13" t="n">
-        <v>1.395458195921402</v>
+        <v>1.35818159640533</v>
       </c>
       <c r="H13" t="n">
-        <v>2.107306411440735</v>
+        <v>1.938578329381085</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4395206985661783</v>
+        <v>0.2822706156860072</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1919527715083984</v>
+        <v>0.1520988048610453</v>
       </c>
     </row>
     <row r="14">
@@ -926,7 +926,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -935,22 +935,22 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.6003119899104084</v>
+        <v>0.7322913437777776</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8509005669358788</v>
+        <v>0.865926646385684</v>
       </c>
       <c r="G14" t="n">
-        <v>1.198179558154489</v>
+        <v>1.291201461673686</v>
       </c>
       <c r="H14" t="n">
-        <v>3.898387587162179</v>
+        <v>2.718635902056505</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3996880100895915</v>
+        <v>0.2677086562222223</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2476434704019256</v>
+        <v>0.2343575831577438</v>
       </c>
     </row>
     <row r="15">
@@ -962,7 +962,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -971,22 +971,22 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.7882484378974521</v>
+        <v>0.8890447124545811</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9528005311397876</v>
+        <v>0.9938209249111145</v>
       </c>
       <c r="G15" t="n">
-        <v>2.915681796238875</v>
+        <v>2.122060190937455</v>
       </c>
       <c r="H15" t="n">
-        <v>1.202429644919333</v>
+        <v>1.095886380087916</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2117515621025474</v>
+        <v>0.1109552875454184</v>
       </c>
       <c r="J15" t="n">
-        <v>0.04412428389080714</v>
+        <v>0.002971495883496988</v>
       </c>
     </row>
     <row r="16">
@@ -998,7 +998,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1007,22 +1007,22 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.3748988214867246</v>
+        <v>0.601258701536499</v>
       </c>
       <c r="F16" t="n">
-        <v>0.460241749228231</v>
+        <v>0.6688595819779689</v>
       </c>
       <c r="G16" t="n">
-        <v>1.172005589070014</v>
+        <v>1.383880905801986</v>
       </c>
       <c r="H16" t="n">
-        <v>1.110627201587097</v>
+        <v>1.292350744204527</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6251011785132757</v>
+        <v>0.3987412984635016</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4549305264174253</v>
+        <v>0.2078620836533411</v>
       </c>
     </row>
     <row r="17">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1043,22 +1043,22 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.5878197497648616</v>
+        <v>0.7408649192562858</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7546476157679658</v>
+        <v>0.8428690510915892</v>
       </c>
       <c r="G17" t="n">
-        <v>1.761955647821128</v>
+        <v>1.599047519471043</v>
       </c>
       <c r="H17" t="n">
-        <v>2.070481477889536</v>
+        <v>1.702291008782982</v>
       </c>
       <c r="I17" t="n">
-        <v>0.412180250235138</v>
+        <v>0.2591350807437137</v>
       </c>
       <c r="J17" t="n">
-        <v>0.248899426903386</v>
+        <v>0.148397054231527</v>
       </c>
     </row>
     <row r="18">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1079,22 +1079,22 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.5056785870605408</v>
+        <v>0.624719933261324</v>
       </c>
       <c r="F18" t="n">
-        <v>1.035537329612189</v>
+        <v>1.065767433472312</v>
       </c>
       <c r="G18" t="n">
-        <v>30.66952362956795</v>
+        <v>25.33547244047731</v>
       </c>
       <c r="H18" t="n">
-        <v>1.480237947456787</v>
+        <v>1.471455843948238</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4943214129394587</v>
+        <v>0.3752800667386754</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1120399091954311</v>
+        <v>0.08611797958356571</v>
       </c>
     </row>
     <row r="19">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.740685845001827</v>
+        <v>0.8441001829115161</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8528215965682855</v>
+        <v>0.8209633725485144</v>
       </c>
       <c r="G19" t="n">
-        <v>1.426070525787772</v>
+        <v>1.281375707588754</v>
       </c>
       <c r="H19" t="n">
-        <v>2.53050308099895</v>
+        <v>1.723488112321309</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2593141549981728</v>
+        <v>0.1558998170884838</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.1139002022381201</v>
+        <v>-0.07228905833490762</v>
       </c>
     </row>
     <row r="20">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1151,22 +1151,22 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.3989251226333593</v>
+        <v>0.584047909070524</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4580150349245889</v>
+        <v>0.7073236705236908</v>
       </c>
       <c r="G20" t="n">
-        <v>1.213067586463602</v>
+        <v>1.451740264876647</v>
       </c>
       <c r="H20" t="n">
-        <v>1.010347645871225</v>
+        <v>1.264876602471738</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6010748773666413</v>
+        <v>0.4159520909294769</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5181124568665414</v>
+        <v>0.2558094389959895</v>
       </c>
     </row>
     <row r="21">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.5484298515652423</v>
+        <v>0.684289341747788</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7821246537016879</v>
+        <v>0.8646848255148391</v>
       </c>
       <c r="G21" t="n">
-        <v>11.10288724727311</v>
+        <v>9.356196137647581</v>
       </c>
       <c r="H21" t="n">
-        <v>1.673696224775654</v>
+        <v>1.486606852913763</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4515701484347578</v>
+        <v>0.3157106582522121</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1720840546079505</v>
+        <v>0.0898794534148822</v>
       </c>
     </row>
     <row r="22">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1223,22 +1223,22 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.6719884009468065</v>
+        <v>0.5593211687737537</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9707767071694476</v>
+        <v>0.9555527928302449</v>
       </c>
       <c r="G22" t="n">
-        <v>1.591282537791273</v>
+        <v>1.200181777147363</v>
       </c>
       <c r="H22" t="n">
-        <v>1.602182388440878</v>
+        <v>1.240473073961123</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3280115990531933</v>
+        <v>0.4406788312262461</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2405949728836864</v>
+        <v>0.2525041142920006</v>
       </c>
     </row>
     <row r="23">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1259,22 +1259,22 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.8676295550527775</v>
+        <v>0.7675660760963026</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9296201489413393</v>
+        <v>0.8772963800703861</v>
       </c>
       <c r="G23" t="n">
-        <v>1.200522225929227</v>
+        <v>1.041420455344051</v>
       </c>
       <c r="H23" t="n">
-        <v>2.387534406052534</v>
+        <v>2.727781889204683</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1323704449472224</v>
+        <v>0.2324339239036973</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.1336488142582399</v>
+        <v>-0.06984127027844456</v>
       </c>
     </row>
     <row r="24">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1295,22 +1295,22 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.6445840900283097</v>
+        <v>0.3900410838238132</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7287304634411925</v>
+        <v>0.4976651137863352</v>
       </c>
       <c r="G24" t="n">
-        <v>1.142948006805351</v>
+        <v>0.857050610800463</v>
       </c>
       <c r="H24" t="n">
-        <v>1.385589023479065</v>
+        <v>1.062279102486157</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3554159099716905</v>
+        <v>0.6099589161761869</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1456776795694207</v>
+        <v>0.4165656080856287</v>
       </c>
     </row>
     <row r="25">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1331,22 +1331,22 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.7280673486759642</v>
+        <v>0.5723094428979564</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8763757731839932</v>
+        <v>0.7768380955623222</v>
       </c>
       <c r="G25" t="n">
-        <v>1.31158425684195</v>
+        <v>1.032884281097292</v>
       </c>
       <c r="H25" t="n">
-        <v>1.791768605990827</v>
+        <v>1.676844688550654</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2719326513240355</v>
+        <v>0.4276905571020435</v>
       </c>
       <c r="J25" t="n">
-        <v>0.08420794606495548</v>
+        <v>0.1997428173663946</v>
       </c>
     </row>
     <row r="26">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.7071526859268403</v>
+        <v>0.5819153553078911</v>
       </c>
       <c r="F26" t="n">
-        <v>0.892642371240741</v>
+        <v>0.6214054577069782</v>
       </c>
       <c r="G26" t="n">
-        <v>1.564628360163452</v>
+        <v>1.404992048864029</v>
       </c>
       <c r="H26" t="n">
-        <v>1.856684608853354</v>
+        <v>1.330692766005844</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2928473140731597</v>
+        <v>0.4180846446921089</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.02307095380449042</v>
+        <v>0.2877977846470188</v>
       </c>
     </row>
     <row r="27">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1403,22 +1403,22 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.8425704284083463</v>
+        <v>0.7176069939154792</v>
       </c>
       <c r="F27" t="n">
-        <v>1.000086010990407</v>
+        <v>1.003957054203805</v>
       </c>
       <c r="G27" t="n">
-        <v>1.186873133361642</v>
+        <v>1.435256562262976</v>
       </c>
       <c r="H27" t="n">
-        <v>1.780638546987528</v>
+        <v>1.579476768803827</v>
       </c>
       <c r="I27" t="n">
-        <v>0.157429571591654</v>
+        <v>0.2823930060845211</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.1179621741618733</v>
+        <v>-0.1222894818529781</v>
       </c>
     </row>
     <row r="28">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1439,22 +1439,22 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.6968964720247954</v>
+        <v>0.4181797338889225</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9250267395882864</v>
+        <v>0.5940307783272839</v>
       </c>
       <c r="G28" t="n">
-        <v>1.703993285886382</v>
+        <v>1.416445594349788</v>
       </c>
       <c r="H28" t="n">
-        <v>1.495929774831612</v>
+        <v>1.075140047402532</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3031035279752042</v>
+        <v>0.5818202661110773</v>
       </c>
       <c r="J28" t="n">
-        <v>0.1620112454986461</v>
+        <v>0.4618630026981612</v>
       </c>
     </row>
     <row r="29">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.7488731954533271</v>
+        <v>0.572567361037431</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9392517072731447</v>
+        <v>0.739797763412689</v>
       </c>
       <c r="G29" t="n">
-        <v>1.485164926470492</v>
+        <v>1.418898068492265</v>
       </c>
       <c r="H29" t="n">
-        <v>1.711084310224164</v>
+        <v>1.328436527404068</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2511268045466727</v>
+        <v>0.4274326389625689</v>
       </c>
       <c r="J29" t="n">
-        <v>0.006992705844093727</v>
+        <v>0.2091237684974002</v>
       </c>
     </row>
     <row r="30">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1511,22 +1511,22 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.6044725317976483</v>
+        <v>0.4915451352584184</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9665321094027044</v>
+        <v>0.9793524958364025</v>
       </c>
       <c r="G30" t="n">
-        <v>1.392571996947705</v>
+        <v>1.421167792143854</v>
       </c>
       <c r="H30" t="n">
-        <v>2.029401680183733</v>
+        <v>2.206453734427724</v>
       </c>
       <c r="I30" t="n">
-        <v>0.3955274682023514</v>
+        <v>0.5084548647415812</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1410794411060278</v>
+        <v>0.1296864481844853</v>
       </c>
     </row>
     <row r="31">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.7984785216536613</v>
+        <v>0.702470536244335</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9696423435044218</v>
+        <v>0.9555216505129017</v>
       </c>
       <c r="G31" t="n">
-        <v>2.414116660954928</v>
+        <v>2.302043144223918</v>
       </c>
       <c r="H31" t="n">
-        <v>3.2178437199148</v>
+        <v>3.74202937243813</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2015214783463384</v>
+        <v>0.2975294637556647</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.05219631563000648</v>
+        <v>-0.03687340689014906</v>
       </c>
     </row>
     <row r="32">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1583,22 +1583,22 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.6393067169769874</v>
+        <v>0.3845216650326398</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5701979246392199</v>
+        <v>0.4208443595870013</v>
       </c>
       <c r="G32" t="n">
-        <v>1.32220581742816</v>
+        <v>1.249179132176047</v>
       </c>
       <c r="H32" t="n">
-        <v>1.05166246047631</v>
+        <v>1.035866370063826</v>
       </c>
       <c r="I32" t="n">
-        <v>0.3606932830230124</v>
+        <v>0.61547833496736</v>
       </c>
       <c r="J32" t="n">
-        <v>0.2235278196260864</v>
+        <v>0.426911387491736</v>
       </c>
     </row>
     <row r="33">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1619,22 +1619,22 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.6807525901427657</v>
+        <v>0.5261791121784644</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8354574591821157</v>
+        <v>0.7852395019787682</v>
       </c>
       <c r="G33" t="n">
-        <v>1.70963149177693</v>
+        <v>1.657463356181274</v>
       </c>
       <c r="H33" t="n">
-        <v>2.099635953524948</v>
+        <v>2.328116492309894</v>
       </c>
       <c r="I33" t="n">
-        <v>0.3192474098572344</v>
+        <v>0.4738208878215356</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1041369817007023</v>
+        <v>0.1732414762620242</v>
       </c>
     </row>
     <row r="34">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1655,22 +1655,22 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.6821233432666715</v>
+        <v>0.6570789691150836</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8200457192182254</v>
+        <v>0.8670513026234824</v>
       </c>
       <c r="G34" t="n">
-        <v>1.304922050455445</v>
+        <v>1.052533236213409</v>
       </c>
       <c r="H34" t="n">
-        <v>3.195052666834638</v>
+        <v>2.308227793916177</v>
       </c>
       <c r="I34" t="n">
-        <v>0.3178766567333284</v>
+        <v>0.3429210308849163</v>
       </c>
       <c r="J34" t="n">
-        <v>0.2749249731440433</v>
+        <v>0.2333631750013268</v>
       </c>
     </row>
     <row r="35">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1691,22 +1691,22 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.8539421969564919</v>
+        <v>0.8303313811539316</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9936312315260555</v>
+        <v>0.9615759058064796</v>
       </c>
       <c r="G35" t="n">
-        <v>2.632921055920368</v>
+        <v>2.172820784936421</v>
       </c>
       <c r="H35" t="n">
-        <v>1.226579685896562</v>
+        <v>1.122563598501495</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1460578030435076</v>
+        <v>0.1696686188460679</v>
       </c>
       <c r="J35" t="n">
-        <v>0.003161801508188011</v>
+        <v>0.03532058650661674</v>
       </c>
     </row>
     <row r="36">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1727,22 +1727,22 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.6229801188247257</v>
+        <v>0.4714219447182422</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6934854913302292</v>
+        <v>0.5048484068883049</v>
       </c>
       <c r="G36" t="n">
-        <v>1.199566452044525</v>
+        <v>1.069871599181329</v>
       </c>
       <c r="H36" t="n">
-        <v>1.219446435820066</v>
+        <v>0.9848957580902028</v>
       </c>
       <c r="I36" t="n">
-        <v>0.3770198811752749</v>
+        <v>0.5285780552817582</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1786973425805523</v>
+        <v>0.4021023606766473</v>
       </c>
     </row>
     <row r="37">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1763,22 +1763,22 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.7196818863492962</v>
+        <v>0.6529440983290858</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8357208140248368</v>
+        <v>0.7778252051060891</v>
       </c>
       <c r="G37" t="n">
-        <v>1.712469852806779</v>
+        <v>1.43174187344372</v>
       </c>
       <c r="H37" t="n">
-        <v>1.880359596183755</v>
+        <v>1.471895716835958</v>
       </c>
       <c r="I37" t="n">
-        <v>0.2803181136507033</v>
+        <v>0.3470559016709137</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1522613724109277</v>
+        <v>0.2235953740615301</v>
       </c>
     </row>
     <row r="38">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1799,22 +1799,22 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.5961842190150323</v>
+        <v>0.4277966440287594</v>
       </c>
       <c r="F38" t="n">
-        <v>1.091594373983386</v>
+        <v>1.023122940158181</v>
       </c>
       <c r="G38" t="n">
-        <v>11.83539801856106</v>
+        <v>32.35291428272151</v>
       </c>
       <c r="H38" t="n">
-        <v>1.454016176501449</v>
+        <v>1.514277591286347</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4038157809849672</v>
+        <v>0.5722033559712403</v>
       </c>
       <c r="J38" t="n">
-        <v>0.06397170654673945</v>
+        <v>0.1226850902735408</v>
       </c>
     </row>
     <row r="39">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1835,22 +1835,22 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.8173475678223946</v>
+        <v>0.6460495340717649</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9006874034016026</v>
+        <v>0.8840253257280458</v>
       </c>
       <c r="G39" t="n">
-        <v>1.169454765495944</v>
+        <v>1.266137272978795</v>
       </c>
       <c r="H39" t="n">
-        <v>1.999312710327019</v>
+        <v>2.8382157056783</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1826524321776052</v>
+        <v>0.353950465928235</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.1764194115621696</v>
+        <v>-0.1546564874465441</v>
       </c>
     </row>
     <row r="40">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1871,22 +1871,22 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.6338452938566714</v>
+        <v>0.3314764155158259</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8777490232296886</v>
+        <v>0.4775465519751914</v>
       </c>
       <c r="G40" t="n">
-        <v>1.230333939547842</v>
+        <v>1.128379344685979</v>
       </c>
       <c r="H40" t="n">
-        <v>1.409808243980473</v>
+        <v>1.076707851283002</v>
       </c>
       <c r="I40" t="n">
-        <v>0.3661547061433295</v>
+        <v>0.6685235844841746</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0765012324069454</v>
+        <v>0.4975629245422724</v>
       </c>
     </row>
     <row r="41">
@@ -1898,30 +1898,2190 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>GradientBoosting</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0.4684408645387834</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.7948982726204731</v>
+      </c>
+      <c r="G41" t="n">
+        <v>11.58247696679542</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.809733716082549</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.5315591354612167</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.155197175789756</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.156128336785924</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.47763646853431</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.09560080658836345</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.8365595223137214</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1.942917158670368</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-0.02016367825869203</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.7614104900210041</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1.185862741559293</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.107365467386664</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.9180327830402165</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1.535472122921323</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.06093419857211117</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.7080882358015481</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1.328181822183915</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.1884493385942406</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.9740764445305747</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1.554475427696554</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-0.08888696348109892</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.9621065820336867</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1.422478404877523</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.1284203343842741</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.8814237541219367</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1.435045218252664</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.07599423649913821</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>3</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.9494609233686044</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1.642151443093234</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.156249958988205</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>3</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.9212836276180399</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3.882726998153951</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.0002795926521663716</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>3</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.7039745114963909</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1.094393243149721</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.04135634268552812</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>3</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.8582396874943452</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2.20642389479897</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.06596196477529974</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>4</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>5.075068872059885e-13</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.850914605774183</v>
+      </c>
+      <c r="G54" t="n">
+        <v>7.289081055700398e-07</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2.24396327465467</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.9999999999994925</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.247631057421988</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>4</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>8.694893743569178e-13</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.000020855837551</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.100243734596431e-06</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1.172196527282713</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.9999999999991305</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-0.003248445458312821</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>4</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>8.086675890365763e-13</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.6946837017033481</v>
+      </c>
+      <c r="G56" t="n">
+        <v>8.143444833423052e-07</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1.032634521811607</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.9999999999991913</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.1772782885759726</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>4</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>7.285546168664939e-13</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.8485397211050273</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.214498774502926e-06</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1.482931441249663</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.9999999999992714</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.1405536335132158</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>5</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>4.270537561805412e-13</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1.037880382132299</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.283816872775647e-05</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1.366267040476299</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.9999999999995729</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.1100307714569626</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>5</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>7.110712705530188e-13</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.8670366988990886</v>
+      </c>
+      <c r="G59" t="n">
+        <v>4.441022767008015e-07</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2.456507921567991</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.9999999999992889</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-0.1324670460244797</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>5</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>4.948899514683992e-13</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.8045899069810966</v>
+      </c>
+      <c r="G60" t="n">
+        <v>4.972558539074817e-07</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1.207980300798022</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.9999999999995051</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.1534735239227768</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>5</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>5.443383260673197e-13</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.9031689960041617</v>
+      </c>
+      <c r="G61" t="n">
+        <v>4.593175619454918e-06</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1.676918420947437</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.9999999999994555</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.04367908311841939</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0.6400139651646486</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1.01488737597491</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1.671670961611072</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1.323545560565952</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.3599860348353512</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.2060887229984761</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0.8044758162622158</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.8753139037017587</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1.356470074389976</v>
+      </c>
+      <c r="H63" t="n">
+        <v>3.965402441114791</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.1955241837377841</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-0.06742368930502352</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0.4506182391287995</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.5021789174067905</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1.31357184469984</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1.355049390756389</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.5493817608712007</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.4112738803804556</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0.6317026735185548</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.797460065694486</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1.447237626900295</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2.214665797479043</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.3682973264814451</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.1833129713579692</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>2</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0.6349321428894575</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.674911121263565</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1.674269914340401</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1.536267703949231</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.3650678571105425</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.2264741325189075</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>2</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0.7602246278437068</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.003043179772704</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1.506467612664833</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1.588959113588554</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.2397753721562935</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.1212678926749708</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0.4577583135807864</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.5943549466776447</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1.806255531418126</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1.106566243517933</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.5422416864192134</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.4615693361255726</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0.6176383614379836</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.7574364159046377</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1.662331019474454</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1.410597687018573</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.3823616385620164</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.1889251919898365</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>3</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0.5219395598522871</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.9716114421675579</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1.464127669128809</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2.1570021289846</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.4780604401477125</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.1365656300336854</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>3</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0.7647767035972695</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.9205783967843734</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1.699500796763516</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2.912660903271975</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.2352232964027302</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.001044865837504738</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>3</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0.3971431501333217</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.4154409851909044</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1.238708264095423</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1.053651437942299</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.6028568498666781</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.4342694814401988</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>3</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0.5612864711942926</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.7692102747142786</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1.467445576662583</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2.041104823399625</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.4387135288057073</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.1906266591037964</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>4</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0.5979351713912251</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.8479504777828963</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1.231126574420829</v>
+      </c>
+      <c r="H74" t="n">
+        <v>3.781518876294371</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.4020648286087748</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.2502519054217015</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>4</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0.7804238572000376</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.9572321949420238</v>
+      </c>
+      <c r="G75" t="n">
+        <v>2.904863883355039</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1.196471706922932</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.2195761427999618</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.03967831679478728</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>4</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0.3868637775977051</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.4472489563548698</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1.195558236738721</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1.139744313273644</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.6131362224022952</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.4703180369675353</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>4</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0.5884076020629895</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.7508105430265969</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1.77718289817153</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2.039244965496982</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.41159239793701</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.2534160863946744</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>5</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0.5053424449880861</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.045412489700287</v>
+      </c>
+      <c r="G78" t="n">
+        <v>31.01971723335173</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1.487383295591594</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.4946575550119134</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.1035720850062043</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>5</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0.7370762277746458</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.8575821870408565</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1.465631737250387</v>
+      </c>
+      <c r="H79" t="n">
+        <v>2.543622166137891</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.262923772225354</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-0.1201181764445756</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>5</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0.4028378040066281</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.4583252645367702</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1.214469954356839</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1.06374982226384</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.5971621959933725</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.5177860575690906</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>5</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0.5484188255897865</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.7871066470926379</v>
+      </c>
+      <c r="G81" t="n">
+        <v>11.23327297498631</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1.698251761331108</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.4515811744102136</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.1670799887102396</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
           <t>SVR</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0.6719884009468065</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.9707767071694476</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1.591282537791273</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1.602182388440878</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.3280115990531933</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.2405949728836864</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0.8676295550527775</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.9296201489413393</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1.200522225929227</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2.387534406052534</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.1323704449472224</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-0.1336488142582399</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0.6445840900283097</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.7287304634411925</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1.142948006805351</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1.385589023479065</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.3554159099716905</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.1456776795694207</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>Y-All</t>
         </is>
       </c>
-      <c r="E41" t="n">
+      <c r="E85" t="n">
+        <v>0.7280673486759642</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.8763757731839932</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1.31158425684195</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1.791768605990827</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.2719326513240355</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.08420794606495548</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>2</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0.7071526859268403</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.892642371240741</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1.564628360163452</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1.856684608853354</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.2928473140731597</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-0.02307095380449042</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0.8425704284083463</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1.000086010990407</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1.186873133361642</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1.780638546987528</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.157429571591654</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-0.1179621741618733</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>2</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0.6968964720247954</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.9250267395882864</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1.703993285886382</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1.495929774831612</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.3031035279752042</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.1620112454986461</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>2</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0.7488731954533271</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.9392517072731447</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1.485164926470492</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1.711084310224164</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.2511268045466727</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.006992705844093727</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>3</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0.6044725317976483</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.9665321094027044</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1.392571996947705</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2.029401680183733</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.3955274682023514</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.1410794411060278</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>3</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0.7984785216536613</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.9696423435044218</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2.414116660954928</v>
+      </c>
+      <c r="H91" t="n">
+        <v>3.2178437199148</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.2015214783463384</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-0.05219631563000648</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>3</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0.6393067169769874</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.5701979246392199</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1.32220581742816</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1.05166246047631</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.3606932830230124</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.2235278196260864</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>3</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0.6807525901427657</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.8354574591821157</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1.70963149177693</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2.099635953524948</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.3192474098572344</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.1041369817007023</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>4</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0.6821233432666715</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.8200457192182254</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1.304922050455445</v>
+      </c>
+      <c r="H94" t="n">
+        <v>3.195052666834638</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.3178766567333284</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.2749249731440433</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>4</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0.8539421969564919</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.9936312315260555</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2.632921055920368</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1.226579685896562</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.1460578030435076</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.003161801508188011</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>4</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0.6229801188247257</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.6934854913302292</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1.199566452044525</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1.219446435820066</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.3770198811752749</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.1786973425805523</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>4</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0.7196818863492962</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.8357208140248368</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1.712469852806779</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1.880359596183755</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.2803181136507033</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.1522613724109277</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>5</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>0.5961842190150323</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1.091594373983386</v>
+      </c>
+      <c r="G98" t="n">
+        <v>11.83539801856106</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1.454016176501449</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.4038157809849672</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.06397170654673945</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>5</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>0.8173475678223946</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.9006874034016026</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1.169454765495944</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1.999312710327019</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.1826524321776052</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-0.1764194115621696</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>5</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>0.6338452938566714</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.8777490232296886</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1.230333939547842</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1.409808243980473</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.3661547061433295</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.0765012324069454</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>5</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
         <v>0.6824590268980328</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F101" t="n">
         <v>0.9566769335382256</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G101" t="n">
         <v>4.745062241201614</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H101" t="n">
         <v>1.621045710269647</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I101" t="n">
         <v>0.3175409731019673</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J101" t="n">
         <v>-0.01198215753616179</v>
       </c>
     </row>

--- a/src/P03_run_diff_sigma/T05_ml_auto_optuna/S03_calculate_performance.xlsx
+++ b/src/P03_run_diff_sigma/T05_ml_auto_optuna/S03_calculate_performance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -791,22 +791,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.6349060282560055</v>
+        <v>0.6349016119216337</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9810615670390228</v>
+        <v>0.9810539556380742</v>
       </c>
       <c r="G10" t="n">
-        <v>1.314830753199098</v>
+        <v>1.31485458365193</v>
       </c>
       <c r="H10" t="n">
-        <v>1.976018187827347</v>
+        <v>1.976037371142247</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3650939717439942</v>
+        <v>0.3650983880783658</v>
       </c>
       <c r="J10" t="n">
-        <v>0.128167661195141</v>
+        <v>0.1281744251595176</v>
       </c>
     </row>
     <row r="11">
@@ -827,22 +827,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.8765858264619248</v>
+        <v>0.8765861204429573</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9127704549904607</v>
+        <v>0.9127700481361022</v>
       </c>
       <c r="G11" t="n">
-        <v>1.360612718673878</v>
+        <v>1.360605041833026</v>
       </c>
       <c r="H11" t="n">
-        <v>2.660852851514883</v>
+        <v>2.660835541619426</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1234141735380748</v>
+        <v>0.1234138795570423</v>
       </c>
       <c r="J11" t="n">
-        <v>0.009517564707602122</v>
+        <v>0.009518006200962881</v>
       </c>
     </row>
     <row r="12">
@@ -863,22 +863,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.6416962982240479</v>
+        <v>0.6416912411302728</v>
       </c>
       <c r="F12" t="n">
-        <v>0.50037399395266</v>
+        <v>0.500368436224695</v>
       </c>
       <c r="G12" t="n">
-        <v>1.399101317343013</v>
+        <v>1.399138180339758</v>
       </c>
       <c r="H12" t="n">
-        <v>1.178863948801027</v>
+        <v>1.178887629283536</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3583037017759518</v>
+        <v>0.358308758869727</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3186111886803921</v>
+        <v>0.3186187569667089</v>
       </c>
     </row>
     <row r="13">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.7177293843139928</v>
+        <v>0.7177263244982882</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7980686719940477</v>
+        <v>0.7980641466662904</v>
       </c>
       <c r="G13" t="n">
-        <v>1.35818159640533</v>
+        <v>1.358199268608238</v>
       </c>
       <c r="H13" t="n">
-        <v>1.938578329381085</v>
+        <v>1.938586847348403</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2822706156860072</v>
+        <v>0.2822736755017117</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1520988048610453</v>
+        <v>0.1521037294423964</v>
       </c>
     </row>
     <row r="14">
@@ -1223,22 +1223,22 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.5593211687737537</v>
+        <v>0.5600637471282338</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9555527928302449</v>
+        <v>0.9449829769514007</v>
       </c>
       <c r="G22" t="n">
-        <v>1.200181777147363</v>
+        <v>1.216557711018637</v>
       </c>
       <c r="H22" t="n">
-        <v>1.240473073961123</v>
+        <v>1.287109128603948</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4406788312262461</v>
+        <v>0.439936252871766</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2525041142920006</v>
+        <v>0.2607725155163072</v>
       </c>
     </row>
     <row r="23">
@@ -1259,22 +1259,22 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.7675660760963026</v>
+        <v>0.7730263657012305</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8772963800703861</v>
+        <v>0.8825341224698113</v>
       </c>
       <c r="G23" t="n">
-        <v>1.041420455344051</v>
+        <v>1.036287204096792</v>
       </c>
       <c r="H23" t="n">
-        <v>2.727781889204683</v>
+        <v>2.881223429092679</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2324339239036973</v>
+        <v>0.2269736342987693</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.06984127027844456</v>
+        <v>-0.0762285677862069</v>
       </c>
     </row>
     <row r="24">
@@ -1295,22 +1295,22 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.3900410838238132</v>
+        <v>0.3905177239764622</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4976651137863352</v>
+        <v>0.5003931641521883</v>
       </c>
       <c r="G24" t="n">
-        <v>0.857050610800463</v>
+        <v>0.8541149655312408</v>
       </c>
       <c r="H24" t="n">
-        <v>1.062279102486157</v>
+        <v>1.074536910789664</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6099589161761869</v>
+        <v>0.6094822760235379</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4165656080856287</v>
+        <v>0.4133673963520319</v>
       </c>
     </row>
     <row r="25">
@@ -1331,22 +1331,22 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.5723094428979564</v>
+        <v>0.5745359456019755</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7768380955623222</v>
+        <v>0.7759700878578002</v>
       </c>
       <c r="G25" t="n">
-        <v>1.032884281097292</v>
+        <v>1.03565329354889</v>
       </c>
       <c r="H25" t="n">
-        <v>1.676844688550654</v>
+        <v>1.747623156162097</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4276905571020435</v>
+        <v>0.4254640543980243</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1997428173663946</v>
+        <v>0.1993037813607105</v>
       </c>
     </row>
     <row r="26">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.5819153553078911</v>
+        <v>0.5818636830810053</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6214054577069782</v>
+        <v>0.620949440919686</v>
       </c>
       <c r="G26" t="n">
-        <v>1.404992048864029</v>
+        <v>1.409454362268737</v>
       </c>
       <c r="H26" t="n">
-        <v>1.330692766005844</v>
+        <v>1.355424534220717</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4180846446921089</v>
+        <v>0.4181363169189947</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2877977846470188</v>
+        <v>0.2883204323999787</v>
       </c>
     </row>
     <row r="27">
@@ -1403,22 +1403,22 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.7176069939154792</v>
+        <v>0.722477163399603</v>
       </c>
       <c r="F27" t="n">
-        <v>1.003957054203805</v>
+        <v>0.9912074960462884</v>
       </c>
       <c r="G27" t="n">
-        <v>1.435256562262976</v>
+        <v>1.422802840410346</v>
       </c>
       <c r="H27" t="n">
-        <v>1.579476768803827</v>
+        <v>1.545309540301273</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2823930060845211</v>
+        <v>0.2775228366003973</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.1222894818529781</v>
+        <v>-0.1080371839498562</v>
       </c>
     </row>
     <row r="28">
@@ -1439,22 +1439,22 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.4181797338889225</v>
+        <v>0.4158507101965448</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5940307783272839</v>
+        <v>0.5855106205268726</v>
       </c>
       <c r="G28" t="n">
-        <v>1.416445594349788</v>
+        <v>1.414049157399848</v>
       </c>
       <c r="H28" t="n">
-        <v>1.075140047402532</v>
+        <v>1.079560050841699</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5818202661110773</v>
+        <v>0.584149289803455</v>
       </c>
       <c r="J28" t="n">
-        <v>0.4618630026981612</v>
+        <v>0.4695814784110897</v>
       </c>
     </row>
     <row r="29">
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.572567361037431</v>
+        <v>0.5733971855590511</v>
       </c>
       <c r="F29" t="n">
-        <v>0.739797763412689</v>
+        <v>0.7325558524976157</v>
       </c>
       <c r="G29" t="n">
-        <v>1.418898068492265</v>
+        <v>1.415435453359644</v>
       </c>
       <c r="H29" t="n">
-        <v>1.328436527404068</v>
+        <v>1.326764708454563</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4274326389625689</v>
+        <v>0.4266028144409488</v>
       </c>
       <c r="J29" t="n">
-        <v>0.2091237684974002</v>
+        <v>0.2166215756204039</v>
       </c>
     </row>
     <row r="30">
@@ -1511,22 +1511,22 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.4915451352584184</v>
+        <v>0.4970096243058364</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9793524958364025</v>
+        <v>0.9709999085259085</v>
       </c>
       <c r="G30" t="n">
-        <v>1.421167792143854</v>
+        <v>1.436293400999528</v>
       </c>
       <c r="H30" t="n">
-        <v>2.206453734427724</v>
+        <v>2.186061805237923</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5084548647415812</v>
+        <v>0.5029903756941634</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1296864481844853</v>
+        <v>0.1371090768702241</v>
       </c>
     </row>
     <row r="31">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.702470536244335</v>
+        <v>0.7027888206631294</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9555216505129017</v>
+        <v>0.9549116949449591</v>
       </c>
       <c r="G31" t="n">
-        <v>2.302043144223918</v>
+        <v>2.272082287350946</v>
       </c>
       <c r="H31" t="n">
-        <v>3.74202937243813</v>
+        <v>3.81118018878394</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2975294637556647</v>
+        <v>0.2972111793368702</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.03687340689014906</v>
+        <v>-0.03621152057135668</v>
       </c>
     </row>
     <row r="32">
@@ -1583,22 +1583,22 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.3845216650326398</v>
+        <v>0.3824242869062355</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4208443595870013</v>
+        <v>0.4227519957906525</v>
       </c>
       <c r="G32" t="n">
-        <v>1.249179132176047</v>
+        <v>1.248755340104475</v>
       </c>
       <c r="H32" t="n">
-        <v>1.035866370063826</v>
+        <v>1.043908718426122</v>
       </c>
       <c r="I32" t="n">
-        <v>0.61547833496736</v>
+        <v>0.6175757130937642</v>
       </c>
       <c r="J32" t="n">
-        <v>0.426911387491736</v>
+        <v>0.4243136466400019</v>
       </c>
     </row>
     <row r="33">
@@ -1619,22 +1619,22 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.5261791121784644</v>
+        <v>0.5274075772917338</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7852395019787682</v>
+        <v>0.7828878664205066</v>
       </c>
       <c r="G33" t="n">
-        <v>1.657463356181274</v>
+        <v>1.652377009484982</v>
       </c>
       <c r="H33" t="n">
-        <v>2.328116492309894</v>
+        <v>2.347050237482662</v>
       </c>
       <c r="I33" t="n">
-        <v>0.4738208878215356</v>
+        <v>0.4725924227082661</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1732414762620242</v>
+        <v>0.1750704009796233</v>
       </c>
     </row>
     <row r="34">
@@ -1655,22 +1655,22 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.6570789691150836</v>
+        <v>0.6574115884809381</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8670513026234824</v>
+        <v>0.8696014807774152</v>
       </c>
       <c r="G34" t="n">
-        <v>1.052533236213409</v>
+        <v>1.06159883878922</v>
       </c>
       <c r="H34" t="n">
-        <v>2.308227793916177</v>
+        <v>2.337383516480939</v>
       </c>
       <c r="I34" t="n">
-        <v>0.3429210308849163</v>
+        <v>0.3425884115190618</v>
       </c>
       <c r="J34" t="n">
-        <v>0.2333631750013268</v>
+        <v>0.2311083367037584</v>
       </c>
     </row>
     <row r="35">
@@ -1691,22 +1691,22 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.8303313811539316</v>
+        <v>0.8305515964131415</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9615759058064796</v>
+        <v>0.9585410349112511</v>
       </c>
       <c r="G35" t="n">
-        <v>2.172820784936421</v>
+        <v>2.168387132660909</v>
       </c>
       <c r="H35" t="n">
-        <v>1.122563598501495</v>
+        <v>1.117623970048419</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1696686188460679</v>
+        <v>0.169448403586858</v>
       </c>
       <c r="J35" t="n">
-        <v>0.03532058650661674</v>
+        <v>0.03836525251536171</v>
       </c>
     </row>
     <row r="36">
@@ -1727,22 +1727,22 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.4714219447182422</v>
+        <v>0.4715825702633388</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5048484068883049</v>
+        <v>0.5043105069856474</v>
       </c>
       <c r="G36" t="n">
-        <v>1.069871599181329</v>
+        <v>1.066293303906513</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9848957580902028</v>
+        <v>0.9834964928683838</v>
       </c>
       <c r="I36" t="n">
-        <v>0.5285780552817582</v>
+        <v>0.5284174297366616</v>
       </c>
       <c r="J36" t="n">
-        <v>0.4021023606766473</v>
+        <v>0.402739401573683</v>
       </c>
     </row>
     <row r="37">
@@ -1763,22 +1763,22 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.6529440983290858</v>
+        <v>0.6531819183858062</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7778252051060891</v>
+        <v>0.7774843408914376</v>
       </c>
       <c r="G37" t="n">
-        <v>1.43174187344372</v>
+        <v>1.432093091785547</v>
       </c>
       <c r="H37" t="n">
-        <v>1.471895716835958</v>
+        <v>1.479501326465914</v>
       </c>
       <c r="I37" t="n">
-        <v>0.3470559016709137</v>
+        <v>0.3468180816141933</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2235953740615301</v>
+        <v>0.2240709969309346</v>
       </c>
     </row>
     <row r="38">
@@ -1799,22 +1799,22 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.4277966440287594</v>
+        <v>0.42427091957277</v>
       </c>
       <c r="F38" t="n">
-        <v>1.023122940158181</v>
+        <v>1.018944169283882</v>
       </c>
       <c r="G38" t="n">
-        <v>32.35291428272151</v>
+        <v>31.72543616506817</v>
       </c>
       <c r="H38" t="n">
-        <v>1.514277591286347</v>
+        <v>1.531375784116952</v>
       </c>
       <c r="I38" t="n">
-        <v>0.5722033559712403</v>
+        <v>0.5757290804272297</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1226850902735408</v>
+        <v>0.1262683331551702</v>
       </c>
     </row>
     <row r="39">
@@ -1835,22 +1835,22 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.6460495340717649</v>
+        <v>0.6415742859590181</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8840253257280458</v>
+        <v>0.885488039889048</v>
       </c>
       <c r="G39" t="n">
-        <v>1.266137272978795</v>
+        <v>1.312628386635864</v>
       </c>
       <c r="H39" t="n">
-        <v>2.8382157056783</v>
+        <v>2.794111537363357</v>
       </c>
       <c r="I39" t="n">
-        <v>0.353950465928235</v>
+        <v>0.3584257140409818</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.1546564874465441</v>
+        <v>-0.1565669897207749</v>
       </c>
     </row>
     <row r="40">
@@ -1871,22 +1871,22 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.3314764155158259</v>
+        <v>0.3350878799008754</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4775465519751914</v>
+        <v>0.4755069471574546</v>
       </c>
       <c r="G40" t="n">
-        <v>1.128379344685979</v>
+        <v>1.097147662462537</v>
       </c>
       <c r="H40" t="n">
-        <v>1.076707851283002</v>
+        <v>1.063914490439295</v>
       </c>
       <c r="I40" t="n">
-        <v>0.6685235844841746</v>
+        <v>0.664912120099125</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4975629245422724</v>
+        <v>0.4997088369679292</v>
       </c>
     </row>
     <row r="41">
@@ -1907,22 +1907,22 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.4684408645387834</v>
+        <v>0.4669776951442213</v>
       </c>
       <c r="F41" t="n">
-        <v>0.7948982726204731</v>
+        <v>0.7933130521101281</v>
       </c>
       <c r="G41" t="n">
-        <v>11.58247696679542</v>
+        <v>11.37840407138886</v>
       </c>
       <c r="H41" t="n">
-        <v>1.809733716082549</v>
+        <v>1.796467270639868</v>
       </c>
       <c r="I41" t="n">
-        <v>0.5315591354612167</v>
+        <v>0.5330223048557787</v>
       </c>
       <c r="J41" t="n">
-        <v>0.155197175789756</v>
+        <v>0.1564700601341079</v>
       </c>
     </row>
     <row r="42">
@@ -2663,22 +2663,22 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.6400139651646486</v>
+        <v>0.6415726020221614</v>
       </c>
       <c r="F62" t="n">
-        <v>1.01488737597491</v>
+        <v>1.025889882020361</v>
       </c>
       <c r="G62" t="n">
-        <v>1.671670961611072</v>
+        <v>1.732913054607262</v>
       </c>
       <c r="H62" t="n">
-        <v>1.323545560565952</v>
+        <v>1.414156553806008</v>
       </c>
       <c r="I62" t="n">
-        <v>0.3599860348353512</v>
+        <v>0.3584273979778383</v>
       </c>
       <c r="J62" t="n">
-        <v>0.2060887229984761</v>
+        <v>0.1974818432288166</v>
       </c>
     </row>
     <row r="63">
@@ -2699,22 +2699,22 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.8044758162622158</v>
+        <v>0.8047153727947964</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8753139037017587</v>
+        <v>0.8809999307630165</v>
       </c>
       <c r="G63" t="n">
-        <v>1.356470074389976</v>
+        <v>1.353905668444822</v>
       </c>
       <c r="H63" t="n">
-        <v>3.965402441114791</v>
+        <v>4.320320505120414</v>
       </c>
       <c r="I63" t="n">
-        <v>0.1955241837377841</v>
+        <v>0.1952846272052035</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.06742368930502352</v>
+        <v>-0.07435765888730494</v>
       </c>
     </row>
     <row r="64">
@@ -2735,22 +2735,22 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.4506182391287995</v>
+        <v>0.4498079486546471</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5021789174067905</v>
+        <v>0.4969436019877593</v>
       </c>
       <c r="G64" t="n">
-        <v>1.31357184469984</v>
+        <v>1.296339412089152</v>
       </c>
       <c r="H64" t="n">
-        <v>1.355049390756389</v>
+        <v>1.305590510575526</v>
       </c>
       <c r="I64" t="n">
-        <v>0.5493817608712007</v>
+        <v>0.5501920513453531</v>
       </c>
       <c r="J64" t="n">
-        <v>0.4112738803804556</v>
+        <v>0.4174114676522325</v>
       </c>
     </row>
     <row r="65">
@@ -2771,22 +2771,22 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.6317026735185548</v>
+        <v>0.6320319744905348</v>
       </c>
       <c r="F65" t="n">
-        <v>0.797460065694486</v>
+        <v>0.8012778049237123</v>
       </c>
       <c r="G65" t="n">
-        <v>1.447237626900295</v>
+        <v>1.461052711713746</v>
       </c>
       <c r="H65" t="n">
-        <v>2.214665797479043</v>
+        <v>2.346689189833981</v>
       </c>
       <c r="I65" t="n">
-        <v>0.3682973264814451</v>
+        <v>0.367968025509465</v>
       </c>
       <c r="J65" t="n">
-        <v>0.1833129713579692</v>
+        <v>0.1801785506645811</v>
       </c>
     </row>
     <row r="66">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.6349321428894575</v>
+        <v>0.6339675899226832</v>
       </c>
       <c r="F66" t="n">
-        <v>0.674911121263565</v>
+        <v>0.652094463275498</v>
       </c>
       <c r="G66" t="n">
-        <v>1.674269914340401</v>
+        <v>1.607437443592215</v>
       </c>
       <c r="H66" t="n">
-        <v>1.536267703949231</v>
+        <v>1.524796133497957</v>
       </c>
       <c r="I66" t="n">
-        <v>0.3650678571105425</v>
+        <v>0.3660324100773168</v>
       </c>
       <c r="J66" t="n">
-        <v>0.2264741325189075</v>
+        <v>0.2526246501310578</v>
       </c>
     </row>
     <row r="67">
@@ -2843,22 +2843,22 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.7602246278437068</v>
+        <v>0.762777441146854</v>
       </c>
       <c r="F67" t="n">
-        <v>1.003043179772704</v>
+        <v>0.9981040160598572</v>
       </c>
       <c r="G67" t="n">
-        <v>1.506467612664833</v>
+        <v>1.477579250506396</v>
       </c>
       <c r="H67" t="n">
-        <v>1.588959113588554</v>
+        <v>1.606047922138929</v>
       </c>
       <c r="I67" t="n">
-        <v>0.2397753721562935</v>
+        <v>0.2372225588531464</v>
       </c>
       <c r="J67" t="n">
-        <v>-0.1212678926749708</v>
+        <v>-0.1157465693665012</v>
       </c>
     </row>
     <row r="68">
@@ -2879,22 +2879,22 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.4577583135807864</v>
+        <v>0.4592400408942097</v>
       </c>
       <c r="F68" t="n">
-        <v>0.5943549466776447</v>
+        <v>0.5960945649732249</v>
       </c>
       <c r="G68" t="n">
-        <v>1.806255531418126</v>
+        <v>1.770556997399625</v>
       </c>
       <c r="H68" t="n">
-        <v>1.106566243517933</v>
+        <v>1.071060187487575</v>
       </c>
       <c r="I68" t="n">
-        <v>0.5422416864192134</v>
+        <v>0.5407599591057901</v>
       </c>
       <c r="J68" t="n">
-        <v>0.4615693361255726</v>
+        <v>0.4599934026888054</v>
       </c>
     </row>
     <row r="69">
@@ -2915,22 +2915,22 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.6176383614379836</v>
+        <v>0.6186616906545822</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7574364159046377</v>
+        <v>0.74876434810286</v>
       </c>
       <c r="G69" t="n">
-        <v>1.662331019474454</v>
+        <v>1.618524563832745</v>
       </c>
       <c r="H69" t="n">
-        <v>1.410597687018573</v>
+        <v>1.400634747708154</v>
       </c>
       <c r="I69" t="n">
-        <v>0.3823616385620164</v>
+        <v>0.3813383093454177</v>
       </c>
       <c r="J69" t="n">
-        <v>0.1889251919898365</v>
+        <v>0.1989571611511205</v>
       </c>
     </row>
     <row r="70">
@@ -2951,22 +2951,22 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.5219395598522871</v>
+        <v>0.5224104627067523</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9716114421675579</v>
+        <v>0.9512315252301008</v>
       </c>
       <c r="G70" t="n">
-        <v>1.464127669128809</v>
+        <v>1.431029901219916</v>
       </c>
       <c r="H70" t="n">
-        <v>2.1570021289846</v>
+        <v>2.06467418819489</v>
       </c>
       <c r="I70" t="n">
-        <v>0.4780604401477125</v>
+        <v>0.4775895372932474</v>
       </c>
       <c r="J70" t="n">
-        <v>0.1365656300336854</v>
+        <v>0.1546764920276557</v>
       </c>
     </row>
     <row r="71">
@@ -2987,22 +2987,22 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.7647767035972695</v>
+        <v>0.7619489648271432</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9205783967843734</v>
+        <v>0.943715033455553</v>
       </c>
       <c r="G71" t="n">
-        <v>1.699500796763516</v>
+        <v>1.713949651701357</v>
       </c>
       <c r="H71" t="n">
-        <v>2.912660903271975</v>
+        <v>3.101945516638869</v>
       </c>
       <c r="I71" t="n">
-        <v>0.2352232964027302</v>
+        <v>0.2380510351728564</v>
       </c>
       <c r="J71" t="n">
-        <v>0.001044865837504738</v>
+        <v>-0.02406159122325202</v>
       </c>
     </row>
     <row r="72">
@@ -3023,22 +3023,22 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.3971431501333217</v>
+        <v>0.4013707229473303</v>
       </c>
       <c r="F72" t="n">
-        <v>0.4154409851909044</v>
+        <v>0.4208936473202207</v>
       </c>
       <c r="G72" t="n">
-        <v>1.238708264095423</v>
+        <v>1.239056785326511</v>
       </c>
       <c r="H72" t="n">
-        <v>1.053651437942299</v>
+        <v>1.05331643927242</v>
       </c>
       <c r="I72" t="n">
-        <v>0.6028568498666781</v>
+        <v>0.5986292770526696</v>
       </c>
       <c r="J72" t="n">
-        <v>0.4342694814401988</v>
+        <v>0.4268442694752985</v>
       </c>
     </row>
     <row r="73">
@@ -3059,22 +3059,22 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.5612864711942926</v>
+        <v>0.5619100501604087</v>
       </c>
       <c r="F73" t="n">
-        <v>0.7692102747142786</v>
+        <v>0.7719467353352917</v>
       </c>
       <c r="G73" t="n">
-        <v>1.467445576662583</v>
+        <v>1.461345446082594</v>
       </c>
       <c r="H73" t="n">
-        <v>2.041104823399625</v>
+        <v>2.073312048035392</v>
       </c>
       <c r="I73" t="n">
-        <v>0.4387135288057073</v>
+        <v>0.4380899498395913</v>
       </c>
       <c r="J73" t="n">
-        <v>0.1906266591037964</v>
+        <v>0.1858197234265673</v>
       </c>
     </row>
     <row r="74">
@@ -3095,22 +3095,22 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.5979351713912251</v>
+        <v>0.5986522669461447</v>
       </c>
       <c r="F74" t="n">
-        <v>0.8479504777828963</v>
+        <v>0.8464441205967349</v>
       </c>
       <c r="G74" t="n">
-        <v>1.231126574420829</v>
+        <v>1.199019523530618</v>
       </c>
       <c r="H74" t="n">
-        <v>3.781518876294371</v>
+        <v>3.725996317062303</v>
       </c>
       <c r="I74" t="n">
-        <v>0.4020648286087748</v>
+        <v>0.4013477330538552</v>
       </c>
       <c r="J74" t="n">
-        <v>0.2502519054217015</v>
+        <v>0.2515838091822039</v>
       </c>
     </row>
     <row r="75">
@@ -3131,22 +3131,22 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.7804238572000376</v>
+        <v>0.7812387052117835</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9572321949420238</v>
+        <v>0.9517178566942328</v>
       </c>
       <c r="G75" t="n">
-        <v>2.904863883355039</v>
+        <v>3.150260759160298</v>
       </c>
       <c r="H75" t="n">
-        <v>1.196471706922932</v>
+        <v>1.186330236910546</v>
       </c>
       <c r="I75" t="n">
-        <v>0.2195761427999618</v>
+        <v>0.2187612947882159</v>
       </c>
       <c r="J75" t="n">
-        <v>0.03967831679478728</v>
+        <v>0.0452104526922873</v>
       </c>
     </row>
     <row r="76">
@@ -3167,22 +3167,22 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.3868637775977051</v>
+        <v>0.3732017498902138</v>
       </c>
       <c r="F76" t="n">
-        <v>0.4472489563548698</v>
+        <v>0.4502254870084201</v>
       </c>
       <c r="G76" t="n">
-        <v>1.195558236738721</v>
+        <v>1.155665585827758</v>
       </c>
       <c r="H76" t="n">
-        <v>1.139744313273644</v>
+        <v>1.091436836945009</v>
       </c>
       <c r="I76" t="n">
-        <v>0.6131362224022952</v>
+        <v>0.6267982501097865</v>
       </c>
       <c r="J76" t="n">
-        <v>0.4703180369675353</v>
+        <v>0.4667928982786752</v>
       </c>
     </row>
     <row r="77">
@@ -3203,22 +3203,22 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.5884076020629895</v>
+        <v>0.5843642406827141</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7508105430265969</v>
+        <v>0.7494624880997959</v>
       </c>
       <c r="G77" t="n">
-        <v>1.77718289817153</v>
+        <v>1.834981956172891</v>
       </c>
       <c r="H77" t="n">
-        <v>2.039244965496982</v>
+        <v>2.001254463639286</v>
       </c>
       <c r="I77" t="n">
-        <v>0.41159239793701</v>
+        <v>0.4156357593172855</v>
       </c>
       <c r="J77" t="n">
-        <v>0.2534160863946744</v>
+        <v>0.2545290533843889</v>
       </c>
     </row>
     <row r="78">
@@ -3239,22 +3239,22 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.5053424449880861</v>
+        <v>0.5050316179091062</v>
       </c>
       <c r="F78" t="n">
-        <v>1.045412489700287</v>
+        <v>1.020515372311293</v>
       </c>
       <c r="G78" t="n">
-        <v>31.01971723335173</v>
+        <v>33.9606484165104</v>
       </c>
       <c r="H78" t="n">
-        <v>1.487383295591594</v>
+        <v>1.474299409232762</v>
       </c>
       <c r="I78" t="n">
-        <v>0.4946575550119134</v>
+        <v>0.4949683820908933</v>
       </c>
       <c r="J78" t="n">
-        <v>0.1035720850062043</v>
+        <v>0.1249210465407758</v>
       </c>
     </row>
     <row r="79">
@@ -3275,22 +3275,22 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.7370762277746458</v>
+        <v>0.7393053486395977</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8575821870408565</v>
+        <v>0.8632724915242316</v>
       </c>
       <c r="G79" t="n">
-        <v>1.465631737250387</v>
+        <v>1.437995283403996</v>
       </c>
       <c r="H79" t="n">
-        <v>2.543622166137891</v>
+        <v>2.408733384825239</v>
       </c>
       <c r="I79" t="n">
-        <v>0.262923772225354</v>
+        <v>0.2606946513604022</v>
       </c>
       <c r="J79" t="n">
-        <v>-0.1201181764445756</v>
+        <v>-0.1275504827327061</v>
       </c>
     </row>
     <row r="80">
@@ -3311,22 +3311,22 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.4028378040066281</v>
+        <v>0.4048560277576874</v>
       </c>
       <c r="F80" t="n">
-        <v>0.4583252645367702</v>
+        <v>0.4638365171464804</v>
       </c>
       <c r="G80" t="n">
-        <v>1.214469954356839</v>
+        <v>1.208641767290195</v>
       </c>
       <c r="H80" t="n">
-        <v>1.06374982226384</v>
+        <v>1.052168113869559</v>
       </c>
       <c r="I80" t="n">
-        <v>0.5971621959933725</v>
+        <v>0.5951439722423132</v>
       </c>
       <c r="J80" t="n">
-        <v>0.5177860575690906</v>
+        <v>0.5119875492731383</v>
       </c>
     </row>
     <row r="81">
@@ -3347,22 +3347,22 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.5484188255897865</v>
+        <v>0.5497309981021306</v>
       </c>
       <c r="F81" t="n">
-        <v>0.7871066470926379</v>
+        <v>0.7825414603273351</v>
       </c>
       <c r="G81" t="n">
-        <v>11.23327297498631</v>
+        <v>12.20242848906818</v>
       </c>
       <c r="H81" t="n">
-        <v>1.698251761331108</v>
+        <v>1.645066969309187</v>
       </c>
       <c r="I81" t="n">
-        <v>0.4515811744102136</v>
+        <v>0.4502690018978694</v>
       </c>
       <c r="J81" t="n">
-        <v>0.1670799887102396</v>
+        <v>0.1697860376937356</v>
       </c>
     </row>
     <row r="82">
@@ -4083,6 +4083,726 @@
       </c>
       <c r="J101" t="n">
         <v>-0.01198215753616179</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>0.5429266139159777</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1.026579485117612</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1.680594525101665</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1.359398827586429</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.457073386084022</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.1969423905875447</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>0.7710844895557091</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.8493794054935035</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1.312983048162143</v>
+      </c>
+      <c r="H103" t="n">
+        <v>2.798655649703765</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.2289155104442908</v>
+      </c>
+      <c r="J103" t="n">
+        <v>-0.03579720920382035</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>0.4325406518288119</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.468725154415446</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1.156435411218394</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.9841479844990648</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.5674593481711883</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.4504931773080726</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>0.5821839184334996</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.7815613483421874</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1.383337661494067</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1.714067487263087</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.4178160815665002</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.2038794528972655</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>2</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>0.6403973741228022</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.6701986342340313</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1.380086018080814</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1.235556834504179</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.3596026258771978</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.2318751853430022</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>2</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>0.804779481303923</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.9555175703164085</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1.245798419223644</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1.381340674261868</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.1952205186960774</v>
+      </c>
+      <c r="J107" t="n">
+        <v>-0.06814062852744951</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>2</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>0.4820940502926513</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.6159300863660133</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1.442144920936664</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.988099002686043</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.5179059497073484</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.4420242530897074</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>2</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>0.6424236352397923</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.7472154303054844</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1.356009786080374</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1.201665503817364</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.3575763647602077</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.201919603301753</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>3</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>0.4959482430355449</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.9642695349984853</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1.250319956100105</v>
+      </c>
+      <c r="H110" t="n">
+        <v>2.089971390145879</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.5040517569644548</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.1430901054728971</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>3</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>0.6941362670725975</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.9589961681842405</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1.921442156361995</v>
+      </c>
+      <c r="H111" t="n">
+        <v>4.066571284523522</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.3058637329274022</v>
+      </c>
+      <c r="J111" t="n">
+        <v>-0.0406437400618227</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>3</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>0.4266358243995366</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.4331588373722461</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1.210279856314987</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.9475559932389886</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.5733641756004633</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.4101420360036099</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>3</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>0.5389067781692263</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.7854748468516574</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1.460680656259029</v>
+      </c>
+      <c r="H113" t="n">
+        <v>2.368032889302798</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.4610932218307737</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.1708628004715615</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>4</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>0.5638190405576206</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.8368627946561509</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1.028862098336222</v>
+      </c>
+      <c r="H114" t="n">
+        <v>2.768340648157449</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.4361809594423793</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.2600555077727503</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>4</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>0.8234024085699971</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.9568804940136807</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1.712251923147344</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1.13847805279902</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.1765975914300023</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.04003115284572245</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>4</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>0.3989193621729312</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.489812807199951</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.027015213615755</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1.03816495302033</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.6010806378270691</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.4199091902849393</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>4</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>0.5953802704335163</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.7611853652899278</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1.25604307836644</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1.648327884658933</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.4046197295664833</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.2399986169678038</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>5</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>0.5813843188998988</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1.027481229960103</v>
+      </c>
+      <c r="G118" t="n">
+        <v>24.88835075586368</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1.436175025677749</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.4186156811001006</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.1189479121944884</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>5</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>0.8292745557951671</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.8041520591497765</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1.217824326389032</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1.910324387155007</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.1707254442048328</v>
+      </c>
+      <c r="J119" t="n">
+        <v>-0.05033121220378756</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>5</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>0.5339430197061178</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.5938233296258699</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1.232611778323979</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1.079641753881035</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.466056980293883</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.3752256071334966</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>5</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>0.6482006314670614</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.8084855395785834</v>
+      </c>
+      <c r="G121" t="n">
+        <v>9.112928953525559</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1.475380388904597</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.3517993685329387</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.1479474357080653</v>
       </c>
     </row>
   </sheetData>
